--- a/biology/Zoologie/Canard_de_Shetland/Canard_de_Shetland.xlsx
+++ b/biology/Zoologie/Canard_de_Shetland/Canard_de_Shetland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le canard de Shetland est une race de canard domestique originaire des îles Shetland au nord de l'Écosse. Il a les mêmes lointains ancêtres que le canard de Poméranie et le canard bleu de Suède.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canard de Shetland aurait évolué à partir des canards de la Baltique dont il partage certaines caractéristiques. Ce sont les Vikings qui l'ont apporté aux Shetland[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canard de Shetland aurait évolué à partir des canards de la Baltique dont il partage certaines caractéristiques. Ce sont les Vikings qui l'ont apporté aux Shetland.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard de Shetland est un petit canard fermier robuste, proche du canard de Poméranie ou du canard bleu de Suède, dont il partage les mêmes ancêtres; mais il est plus petit. Il est noir avec une bavette blanche. Sa caractéristique propre est d'avoir un bec bleuâtre. Il ne dépasse guère les 2 kg pour le mâle et 1,8 kg pour la cane. Les canetons sont noir ou brun foncé avec une poitrine noire ou couleur chamois. Ses œufs sont blancs.
 </t>
